--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -762,7 +762,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -770,34 +770,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5917,7 +5918,7 @@
         <v>62</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
@@ -5937,7 +5938,7 @@
         <v>64</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
@@ -5977,7 +5978,7 @@
         <v>68</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
@@ -6377,7 +6378,7 @@
         <v>163</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
@@ -7223,273 +7224,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE88EABA-BE41-4088-BAF9-5CDD87DA2513}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532927C6-CBBA-4EEE-B9EB-77F89FCE2984}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADCDB647-E08D-4001-BBC7-2F8E52C60D1E}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="241">
   <si>
     <t>Sezione</t>
   </si>
@@ -86,6 +86,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -576,6 +579,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G322"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1309,73 +1315,73 @@
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1383,19 +1389,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1403,19 +1409,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1443,19 +1449,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1463,19 +1469,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1483,19 +1489,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1543,59 +1549,59 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1983,59 +1989,59 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3083,19 +3089,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3363,19 +3369,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3383,19 +3389,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3403,19 +3409,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3443,19 +3449,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3463,19 +3469,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3483,19 +3489,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3503,19 +3509,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3543,19 +3549,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3583,19 +3589,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3603,19 +3609,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3643,19 +3649,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3663,19 +3669,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3683,19 +3689,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3703,19 +3709,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3723,19 +3729,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3763,19 +3769,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3783,19 +3789,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3803,19 +3809,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3843,19 +3849,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3863,19 +3869,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3883,19 +3889,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3903,19 +3909,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3923,19 +3929,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3943,19 +3949,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3963,19 +3969,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -3983,19 +3989,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4003,19 +4009,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4023,19 +4029,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4043,19 +4049,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4063,19 +4069,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4083,19 +4089,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4103,19 +4109,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4123,19 +4129,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4143,19 +4149,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4163,19 +4169,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4183,19 +4189,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4203,19 +4209,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4223,19 +4229,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4243,19 +4249,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4263,19 +4269,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4283,19 +4289,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4303,19 +4309,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4323,19 +4329,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4343,19 +4349,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4363,19 +4369,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4383,39 +4389,39 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
@@ -4423,19 +4429,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -4443,39 +4449,39 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4483,19 +4489,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4503,19 +4509,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4523,19 +4529,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4543,19 +4549,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4563,19 +4569,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>149</v>
@@ -4592,10 +4598,10 @@
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4603,19 +4609,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4623,7 +4629,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>152</v>
@@ -4632,10 +4638,10 @@
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4643,19 +4649,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4663,19 +4669,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4683,39 +4689,39 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>18</v>
@@ -4723,39 +4729,39 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4763,99 +4769,99 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4863,19 +4869,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4883,19 +4889,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4903,19 +4909,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4923,19 +4929,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4943,19 +4949,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4963,7 +4969,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>149</v>
@@ -4972,10 +4978,10 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4983,19 +4989,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5003,7 +5009,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>152</v>
@@ -5012,10 +5018,10 @@
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5023,19 +5029,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5043,19 +5049,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5063,39 +5069,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>19</v>
@@ -5103,19 +5109,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>19</v>
@@ -5123,39 +5129,39 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5163,19 +5169,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5183,19 +5189,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5203,39 +5209,39 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>19</v>
@@ -5243,19 +5249,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>19</v>
@@ -5263,39 +5269,39 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5303,19 +5309,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5323,19 +5329,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="E227" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5346,36 +5352,36 @@
         <v>179</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -5383,19 +5389,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -5403,39 +5409,39 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5443,19 +5449,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5463,19 +5469,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5483,39 +5489,39 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E235" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>21</v>
@@ -5523,19 +5529,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>21</v>
@@ -5543,39 +5549,39 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F238" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5583,19 +5589,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5603,19 +5609,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5623,39 +5629,39 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E242" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>22</v>
@@ -5663,19 +5669,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>22</v>
@@ -5683,39 +5689,39 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F245" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5723,19 +5729,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5743,19 +5749,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5763,47 +5769,47 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="F250" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>191</v>
@@ -5812,18 +5818,18 @@
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>193</v>
@@ -5832,18 +5838,18 @@
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>195</v>
@@ -5852,30 +5858,30 @@
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5883,7 +5889,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>200</v>
@@ -5892,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>201</v>
@@ -5903,19 +5909,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5923,59 +5929,59 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -5983,39 +5989,39 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F260" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6023,19 +6029,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6043,19 +6049,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6063,19 +6069,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6083,19 +6089,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6103,19 +6109,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6123,19 +6129,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6143,19 +6149,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6163,19 +6169,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6183,19 +6189,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6203,19 +6209,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6223,19 +6229,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6243,19 +6249,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6263,19 +6269,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6283,19 +6289,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6303,19 +6309,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6323,19 +6329,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6343,19 +6349,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6363,19 +6369,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6383,39 +6389,39 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F280" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6423,19 +6429,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6443,19 +6449,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6463,19 +6469,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6489,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -6495,107 +6501,107 @@
         <v>205</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F287" s="2" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F288" s="2" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F289" s="2" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6603,19 +6609,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6623,19 +6629,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6643,19 +6649,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6663,99 +6669,99 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F294" s="2" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F295" s="2" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F296" s="2" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F297" s="2" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6763,19 +6769,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6783,19 +6789,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6803,19 +6809,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6823,59 +6829,59 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -6883,19 +6889,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -6903,19 +6909,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -6923,19 +6929,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E307" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -6943,56 +6949,56 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E309" s="2" t="s">
+      <c r="F309" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>216</v>
@@ -7003,16 +7009,16 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>218</v>
@@ -7023,7 +7029,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>219</v>
@@ -7032,7 +7038,7 @@
         <v>17</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>220</v>
@@ -7043,7 +7049,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>221</v>
@@ -7052,7 +7058,7 @@
         <v>17</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>222</v>
@@ -7063,7 +7069,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>223</v>
@@ -7072,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>224</v>
@@ -7083,7 +7089,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>225</v>
@@ -7092,7 +7098,7 @@
         <v>17</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>226</v>
@@ -7103,7 +7109,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>227</v>
@@ -7112,7 +7118,7 @@
         <v>17</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>228</v>
@@ -7123,7 +7129,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>229</v>
@@ -7132,7 +7138,7 @@
         <v>17</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>230</v>
@@ -7143,7 +7149,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>231</v>
@@ -7152,7 +7158,7 @@
         <v>17</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>232</v>
@@ -7163,7 +7169,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>233</v>
@@ -7172,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>234</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>235</v>
@@ -7192,7 +7198,7 @@
         <v>17</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>236</v>
@@ -7203,7 +7209,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>237</v>
@@ -7212,12 +7218,32 @@
         <v>17</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F321" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F322" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -6044,7 +6044,7 @@
         <v>73</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263">
@@ -6084,7 +6084,7 @@
         <v>77</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265">
@@ -6124,7 +6124,7 @@
         <v>81</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="254">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -735,6 +756,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -793,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -949,13 +988,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -969,10 +1008,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -989,10 +1028,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1009,10 +1048,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1029,10 +1068,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1049,10 +1088,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1069,10 +1108,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1089,13 +1128,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1109,7 +1148,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1129,7 +1168,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1149,7 +1188,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1169,7 +1208,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1189,7 +1228,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1209,7 +1248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1229,7 +1268,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1249,7 +1288,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1269,7 +1308,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -1289,7 +1328,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1309,7 +1348,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1329,13 +1368,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -1348,40 +1387,40 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1389,19 +1428,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1409,19 +1448,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1429,19 +1468,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1449,19 +1488,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1469,59 +1508,59 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1529,19 +1568,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1549,19 +1588,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1569,39 +1608,39 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1609,19 +1648,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1629,19 +1668,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1649,19 +1688,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1669,19 +1708,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1689,19 +1728,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1709,39 +1748,39 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1749,19 +1788,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1769,19 +1808,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1789,19 +1828,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1809,19 +1848,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1829,19 +1868,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1849,19 +1888,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1869,19 +1908,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1889,19 +1928,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1909,19 +1948,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1929,19 +1968,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1949,19 +1988,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1969,19 +2008,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1989,19 +2028,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2009,39 +2048,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2049,19 +2088,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2069,19 +2108,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2089,19 +2128,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2109,19 +2148,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2129,19 +2168,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2149,39 +2188,39 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2189,19 +2228,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2209,19 +2248,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2229,19 +2268,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2249,19 +2288,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2269,19 +2308,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2289,19 +2328,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2309,19 +2348,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2329,19 +2368,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2349,19 +2388,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2369,19 +2408,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2389,19 +2428,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2409,19 +2448,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2429,19 +2468,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2449,19 +2488,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2469,19 +2508,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2489,19 +2528,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2509,19 +2548,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2529,19 +2568,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2549,19 +2588,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2569,19 +2608,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2589,19 +2628,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2609,19 +2648,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2629,19 +2668,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2649,19 +2688,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2669,19 +2708,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2689,19 +2728,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2709,19 +2748,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2729,19 +2768,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2749,19 +2788,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2769,19 +2808,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2789,19 +2828,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2809,19 +2848,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2829,19 +2868,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2849,19 +2888,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2869,19 +2908,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2889,19 +2928,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2909,19 +2948,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2929,19 +2968,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2949,19 +2988,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2969,19 +3008,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2989,19 +3028,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3009,19 +3048,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3029,19 +3068,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3049,19 +3088,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3069,19 +3108,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3089,19 +3128,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3109,19 +3148,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3129,19 +3168,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3149,19 +3188,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3169,19 +3208,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3189,19 +3228,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3209,19 +3248,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3229,19 +3268,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3249,19 +3288,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3269,19 +3308,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3289,19 +3328,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3309,19 +3348,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3329,19 +3368,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3349,19 +3388,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3369,19 +3408,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3389,19 +3428,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3409,19 +3448,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3429,19 +3468,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3449,19 +3488,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3469,19 +3508,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3489,19 +3528,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3509,19 +3548,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3529,19 +3568,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3549,19 +3588,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3569,19 +3608,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3589,19 +3628,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3609,19 +3648,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3629,19 +3668,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3649,19 +3688,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3669,19 +3708,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3689,19 +3728,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3709,19 +3748,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3729,19 +3768,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3749,19 +3788,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3769,19 +3808,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3789,19 +3828,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3809,19 +3848,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3829,19 +3868,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3849,19 +3888,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3869,19 +3908,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3889,19 +3928,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3909,19 +3948,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3929,19 +3968,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3949,19 +3988,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3969,19 +4008,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -3989,19 +4028,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4009,19 +4048,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4029,19 +4068,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4049,19 +4088,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4069,19 +4108,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4089,19 +4128,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4109,19 +4148,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4129,19 +4168,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4149,19 +4188,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4169,19 +4208,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4189,19 +4228,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4209,19 +4248,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4229,19 +4268,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4249,19 +4288,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4269,19 +4308,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4289,19 +4328,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4309,19 +4348,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4329,19 +4368,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4349,19 +4388,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4369,19 +4408,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4389,19 +4428,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4409,79 +4448,79 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4489,19 +4528,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4509,19 +4548,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4529,19 +4568,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4549,79 +4588,79 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4629,19 +4668,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4649,19 +4688,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4669,19 +4708,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4689,19 +4728,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4709,59 +4748,59 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4769,19 +4808,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4789,39 +4828,39 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4829,79 +4868,79 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4909,19 +4948,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4929,39 +4968,39 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4969,39 +5008,39 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5009,19 +5048,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5029,19 +5068,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5049,19 +5088,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5069,19 +5108,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5089,79 +5128,79 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5169,19 +5208,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5189,19 +5228,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5209,19 +5248,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5229,79 +5268,79 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5309,19 +5348,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5329,19 +5368,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5349,19 +5388,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5369,79 +5408,79 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5449,19 +5488,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5469,19 +5508,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5489,19 +5528,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5509,79 +5548,79 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5589,19 +5628,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5609,19 +5648,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5629,19 +5668,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5649,79 +5688,79 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5729,19 +5768,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5749,19 +5788,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5769,19 +5808,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5789,99 +5828,99 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5889,19 +5928,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5909,19 +5948,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5929,99 +5968,99 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F258" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6029,39 +6068,39 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6069,99 +6108,99 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6169,39 +6208,39 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6209,39 +6248,39 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6249,39 +6288,39 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6289,19 +6328,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6309,19 +6348,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6329,19 +6368,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6349,19 +6388,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6369,19 +6408,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6389,39 +6428,39 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6429,19 +6468,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6449,19 +6488,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6469,19 +6508,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6489,19 +6528,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6512,19 +6551,19 @@
         <v>206</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
@@ -6532,19 +6571,19 @@
         <v>206</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288">
@@ -6552,16 +6591,16 @@
         <v>206</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6572,19 +6611,19 @@
         <v>206</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -6592,16 +6631,16 @@
         <v>206</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6612,16 +6651,16 @@
         <v>206</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6632,16 +6671,16 @@
         <v>206</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6649,119 +6688,119 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6769,19 +6808,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6789,19 +6828,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6809,19 +6848,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6829,79 +6868,79 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -6909,19 +6948,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -6929,19 +6968,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -6949,19 +6988,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -6969,59 +7008,59 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7029,19 +7068,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7049,19 +7088,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7069,19 +7108,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7089,19 +7128,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7109,39 +7148,39 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7149,19 +7188,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7169,19 +7208,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7189,19 +7228,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7209,19 +7248,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7229,21 +7268,201 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E322" s="2" t="s">
+      <c r="F325" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="C326" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -4394,7 +4394,7 @@
         <v>124</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>125</v>
@@ -4414,7 +4414,7 @@
         <v>127</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>125</v>
@@ -4434,7 +4434,7 @@
         <v>129</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>125</v>
@@ -4454,7 +4454,7 @@
         <v>131</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>125</v>
@@ -4463,7 +4463,7 @@
         <v>132</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
@@ -4474,7 +4474,7 @@
         <v>133</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>125</v>
@@ -4483,7 +4483,7 @@
         <v>134</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
@@ -4494,7 +4494,7 @@
         <v>135</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>125</v>
@@ -4503,7 +4503,7 @@
         <v>136</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="255">
   <si>
     <t>Sezione</t>
   </si>
@@ -86,66 +86,66 @@
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>62-bis</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>62-bis</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
     <t>Formazione atto</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -512,7 +515,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -1134,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1151,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1171,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -1191,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -1211,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -1231,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1251,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1271,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1291,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -1311,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1331,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1351,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -1371,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -1391,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1411,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -1431,7 +1434,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1451,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1471,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -1491,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -1511,10 +1514,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1554,7 +1557,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1574,7 +1577,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
@@ -1594,7 +1597,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>46</v>
@@ -1614,7 +1617,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
@@ -1634,7 +1637,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
@@ -1654,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>56</v>
@@ -1674,7 +1677,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
@@ -1691,16 +1694,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1711,7 +1714,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1720,7 +1723,7 @@
         <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1731,16 +1734,16 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1748,39 +1751,39 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1788,19 +1791,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1808,19 +1811,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1828,19 +1831,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1848,19 +1851,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1868,19 +1871,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1888,19 +1891,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1908,19 +1911,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1928,19 +1931,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1948,19 +1951,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1968,19 +1971,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1988,19 +1991,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2008,19 +2011,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2028,19 +2031,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2048,19 +2051,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2068,19 +2071,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2088,19 +2091,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2108,19 +2111,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2128,19 +2131,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2148,19 +2151,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2168,19 +2171,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2188,39 +2191,39 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2228,19 +2231,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2248,19 +2251,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2268,19 +2271,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2288,19 +2291,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2308,19 +2311,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2328,19 +2331,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2348,19 +2351,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2368,19 +2371,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2388,19 +2391,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2408,19 +2411,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2428,19 +2431,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2448,19 +2451,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2468,19 +2471,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2488,19 +2491,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2508,19 +2511,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2528,19 +2531,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2548,19 +2551,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2568,19 +2571,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2588,19 +2591,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2608,19 +2611,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2628,19 +2631,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2648,19 +2651,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2668,19 +2671,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2688,19 +2691,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2708,19 +2711,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2728,19 +2731,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2748,19 +2751,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2768,19 +2771,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2788,19 +2791,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2808,19 +2811,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2828,19 +2831,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2848,19 +2851,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2868,19 +2871,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2888,19 +2891,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2908,19 +2911,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2928,19 +2931,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2948,19 +2951,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2968,19 +2971,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2988,19 +2991,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3008,19 +3011,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -3028,19 +3031,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3048,19 +3051,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3068,19 +3071,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3088,19 +3091,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3108,19 +3111,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3128,19 +3131,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3148,19 +3151,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3168,19 +3171,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3188,19 +3191,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3208,19 +3211,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3228,19 +3231,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3248,19 +3251,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3268,19 +3271,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3288,19 +3291,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3308,19 +3311,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3328,19 +3331,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3348,19 +3351,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3368,19 +3371,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3388,19 +3391,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3408,19 +3411,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3428,19 +3431,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3448,19 +3451,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3468,19 +3471,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3488,19 +3491,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3508,19 +3511,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3528,19 +3531,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3548,19 +3551,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3568,19 +3571,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3588,19 +3591,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3608,19 +3611,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3628,19 +3631,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3648,19 +3651,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3668,19 +3671,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3688,19 +3691,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3708,19 +3711,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3728,19 +3731,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3748,19 +3751,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3768,19 +3771,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3788,19 +3791,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3808,19 +3811,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3828,19 +3831,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3848,19 +3851,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3868,19 +3871,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3888,19 +3891,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3908,19 +3911,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3928,19 +3931,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3948,19 +3951,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3968,19 +3971,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3988,19 +3991,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4008,19 +4011,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4028,19 +4031,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4048,19 +4051,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4068,19 +4071,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4088,19 +4091,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4108,19 +4111,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4128,19 +4131,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4148,19 +4151,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4168,19 +4171,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4188,19 +4191,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4208,19 +4211,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4228,19 +4231,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4248,19 +4251,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4268,19 +4271,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4288,19 +4291,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4308,19 +4311,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4328,19 +4331,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4348,19 +4351,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4368,19 +4371,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4388,19 +4391,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4408,19 +4411,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4428,19 +4431,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4448,19 +4451,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>23</v>
@@ -4468,19 +4471,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>23</v>
@@ -4488,19 +4491,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>23</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -4520,7 +4523,7 @@
         <v>56</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4528,19 +4531,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4548,19 +4551,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4568,19 +4571,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4588,19 +4591,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>23</v>
@@ -4608,19 +4611,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>23</v>
@@ -4628,19 +4631,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>23</v>
@@ -4648,19 +4651,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4668,19 +4671,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4688,19 +4691,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4708,19 +4711,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4728,19 +4731,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4748,19 +4751,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4768,16 +4771,16 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>47</v>
@@ -4788,19 +4791,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4808,16 +4811,16 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>49</v>
@@ -4828,19 +4831,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4848,19 +4851,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4868,19 +4871,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4888,59 +4891,59 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4948,19 +4951,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4968,39 +4971,39 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5008,39 +5011,39 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5048,19 +5051,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5068,19 +5071,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5088,19 +5091,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5108,19 +5111,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5128,19 +5131,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5148,16 +5151,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>47</v>
@@ -5168,19 +5171,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5188,16 +5191,16 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>49</v>
@@ -5208,19 +5211,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5228,19 +5231,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5248,19 +5251,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5268,79 +5271,79 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5348,19 +5351,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5368,19 +5371,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5388,19 +5391,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5408,79 +5411,79 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5488,19 +5491,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5508,19 +5511,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E234" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5528,19 +5531,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E235" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5548,79 +5551,79 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5628,19 +5631,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5648,19 +5651,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5668,19 +5671,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5688,79 +5691,79 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5768,19 +5771,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5788,19 +5791,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5808,19 +5811,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5828,79 +5831,79 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5908,19 +5911,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5928,19 +5931,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5948,19 +5951,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5968,99 +5971,99 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6068,19 +6071,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6088,19 +6091,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6108,59 +6111,59 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6168,39 +6171,39 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6208,39 +6211,39 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6248,39 +6251,39 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6288,39 +6291,39 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6328,19 +6331,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6348,19 +6351,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6368,19 +6371,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6388,19 +6391,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6408,19 +6411,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6428,19 +6431,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6448,19 +6451,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6468,19 +6471,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6488,19 +6491,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6508,19 +6511,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6528,19 +6531,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6548,19 +6551,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6568,39 +6571,39 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6608,19 +6611,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6628,19 +6631,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6648,19 +6651,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6668,19 +6671,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6688,59 +6691,59 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6748,39 +6751,39 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6788,19 +6791,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6808,19 +6811,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6828,19 +6831,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6848,19 +6851,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6868,39 +6871,39 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6908,39 +6911,39 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -6948,19 +6951,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -6968,19 +6971,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -6988,19 +6991,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7008,19 +7011,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7028,39 +7031,39 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7068,19 +7071,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7088,19 +7091,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7108,19 +7111,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7128,19 +7131,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7148,10 +7151,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -7160,27 +7163,27 @@
         <v>56</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7188,10 +7191,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -7200,7 +7203,7 @@
         <v>56</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7208,19 +7211,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7228,19 +7231,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7248,19 +7251,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7268,19 +7271,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7288,19 +7291,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>9</v>
@@ -7308,19 +7311,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7328,19 +7331,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7348,19 +7351,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7368,19 +7371,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7388,19 +7391,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7408,19 +7411,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7428,19 +7431,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7448,19 +7451,19 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="269">
   <si>
     <t>Sezione</t>
   </si>
@@ -635,25 +635,52 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+  </si>
+  <si>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
+  </si>
+  <si>
+    <t>Madre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+  </si>
+  <si>
+    <t>Madre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
+  </si>
+  <si>
+    <t>Tutore Sposo</t>
+  </si>
+  <si>
+    <t>Curatore Sposo</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
+  </si>
+  <si>
+    <t>Tutore Sposa</t>
+  </si>
+  <si>
+    <t>Curatore Sposa</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -759,6 +786,21 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0]</t>
+  </si>
+  <si>
+    <t>tipoAssistente</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1]</t>
   </si>
   <si>
     <t>Annotazione Contestuale</t>
@@ -835,16 +877,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G492"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -6074,16 +6116,16 @@
         <v>207</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E262" s="2" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6094,16 +6136,16 @@
         <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6114,19 +6156,19 @@
         <v>207</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265">
@@ -6134,19 +6176,19 @@
         <v>207</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
@@ -6154,16 +6196,16 @@
         <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6174,19 +6216,19 @@
         <v>207</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
@@ -6194,16 +6236,16 @@
         <v>207</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6214,19 +6256,19 @@
         <v>207</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
@@ -6234,16 +6276,16 @@
         <v>207</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6254,19 +6296,19 @@
         <v>207</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -6274,16 +6316,16 @@
         <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6294,19 +6336,19 @@
         <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
@@ -6314,16 +6356,16 @@
         <v>207</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6334,16 +6376,16 @@
         <v>207</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6354,16 +6396,16 @@
         <v>207</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6374,16 +6416,16 @@
         <v>207</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6394,16 +6436,16 @@
         <v>207</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6414,16 +6456,16 @@
         <v>207</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6434,16 +6476,16 @@
         <v>207</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6454,16 +6496,16 @@
         <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6474,16 +6516,16 @@
         <v>207</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6494,16 +6536,16 @@
         <v>207</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6511,19 +6553,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6531,19 +6573,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6551,19 +6593,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6571,39 +6613,39 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6611,19 +6653,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6631,19 +6673,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6651,19 +6693,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6671,19 +6713,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6691,59 +6733,59 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6751,39 +6793,39 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6791,19 +6833,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6811,19 +6853,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6831,19 +6873,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6851,19 +6893,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6871,39 +6913,39 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6911,39 +6953,39 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -6951,19 +6993,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -6971,19 +7013,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -6991,19 +7033,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7011,19 +7053,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7031,39 +7073,39 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7071,19 +7113,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7091,19 +7133,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7111,19 +7153,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7131,19 +7173,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7151,39 +7193,39 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7191,19 +7233,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7211,19 +7253,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7231,19 +7273,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7251,19 +7293,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7271,19 +7313,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7291,19 +7333,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>9</v>
@@ -7311,19 +7353,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7331,19 +7373,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7351,19 +7393,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7371,19 +7413,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7391,19 +7433,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7411,19 +7453,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7431,19 +7473,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7451,21 +7493,3241 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E484" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="F484" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E486" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E331" s="2" t="s">
+      <c r="F486" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B487" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F331" s="2" t="s">
+      <c r="C487" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F492" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="295">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -698,31 +698,25 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -6999,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
@@ -7022,7 +7016,7 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264">
@@ -7045,7 +7039,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265">
@@ -7068,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266">
@@ -7091,7 +7085,7 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267">
@@ -7114,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268">
@@ -7137,7 +7131,7 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269">
@@ -7160,7 +7154,7 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270">
@@ -7183,7 +7177,7 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271">
@@ -7206,7 +7200,7 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272">
@@ -7229,7 +7223,7 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273">
@@ -7252,7 +7246,7 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="274">
@@ -7275,7 +7269,7 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275">
@@ -7298,7 +7292,7 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276">
@@ -7321,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277">
@@ -7344,7 +7338,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278">
@@ -7367,7 +7361,7 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279">
@@ -7390,7 +7384,7 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280">
@@ -7413,7 +7407,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281">
@@ -7436,7 +7430,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282">
@@ -7459,7 +7453,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283">
@@ -7482,12 +7476,12 @@
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>73</v>
@@ -7496,7 +7490,7 @@
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>79</v>
@@ -7505,12 +7499,12 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>75</v>
@@ -7519,7 +7513,7 @@
         <v>50</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>81</v>
@@ -7528,12 +7522,12 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>82</v>
@@ -7542,7 +7536,7 @@
         <v>50</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>83</v>
@@ -7551,12 +7545,12 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>84</v>
@@ -7565,7 +7559,7 @@
         <v>50</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>85</v>
@@ -7574,12 +7568,12 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>86</v>
@@ -7588,7 +7582,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>87</v>
@@ -7597,12 +7591,12 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>88</v>
@@ -7611,7 +7605,7 @@
         <v>50</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>89</v>
@@ -7620,12 +7614,12 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>90</v>
@@ -7634,7 +7628,7 @@
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>91</v>
@@ -7643,12 +7637,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>92</v>
@@ -7657,7 +7651,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>93</v>
@@ -7666,12 +7660,12 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>94</v>
@@ -7680,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>95</v>
@@ -7689,12 +7683,12 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>96</v>
@@ -7703,7 +7697,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>97</v>
@@ -7712,12 +7706,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>98</v>
@@ -7726,7 +7720,7 @@
         <v>50</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>99</v>
@@ -7735,12 +7729,12 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>100</v>
@@ -7749,7 +7743,7 @@
         <v>50</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>101</v>
@@ -7758,12 +7752,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>102</v>
@@ -7772,7 +7766,7 @@
         <v>50</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>103</v>
@@ -7781,12 +7775,12 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>104</v>
@@ -7795,7 +7789,7 @@
         <v>50</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>105</v>
@@ -7804,12 +7798,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>106</v>
@@ -7818,7 +7812,7 @@
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>107</v>
@@ -7827,12 +7821,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>108</v>
@@ -7841,7 +7835,7 @@
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>109</v>
@@ -7850,12 +7844,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>110</v>
@@ -7864,7 +7858,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>111</v>
@@ -7873,12 +7867,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>112</v>
@@ -7887,7 +7881,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>113</v>
@@ -7896,12 +7890,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>114</v>
@@ -7910,7 +7904,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>115</v>
@@ -7919,12 +7913,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>116</v>
@@ -7933,7 +7927,7 @@
         <v>50</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>117</v>
@@ -7942,12 +7936,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>118</v>
@@ -7956,7 +7950,7 @@
         <v>50</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>119</v>
@@ -7965,12 +7959,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>120</v>
@@ -7979,7 +7973,7 @@
         <v>50</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>121</v>
@@ -7988,12 +7982,12 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>73</v>
@@ -8002,7 +7996,7 @@
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>79</v>
@@ -8011,12 +8005,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>75</v>
@@ -8025,7 +8019,7 @@
         <v>50</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>81</v>
@@ -8034,12 +8028,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>82</v>
@@ -8048,7 +8042,7 @@
         <v>50</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>83</v>
@@ -8057,12 +8051,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>84</v>
@@ -8071,7 +8065,7 @@
         <v>50</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>85</v>
@@ -8080,12 +8074,12 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>86</v>
@@ -8094,7 +8088,7 @@
         <v>50</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>87</v>
@@ -8103,12 +8097,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>88</v>
@@ -8117,7 +8111,7 @@
         <v>50</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>89</v>
@@ -8126,12 +8120,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>90</v>
@@ -8140,7 +8134,7 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>91</v>
@@ -8149,12 +8143,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>92</v>
@@ -8163,7 +8157,7 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>93</v>
@@ -8172,12 +8166,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>94</v>
@@ -8186,7 +8180,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>95</v>
@@ -8195,12 +8189,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>96</v>
@@ -8209,7 +8203,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>97</v>
@@ -8218,12 +8212,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>98</v>
@@ -8232,7 +8226,7 @@
         <v>50</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>99</v>
@@ -8241,12 +8235,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>100</v>
@@ -8255,7 +8249,7 @@
         <v>50</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>101</v>
@@ -8264,12 +8258,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>102</v>
@@ -8278,7 +8272,7 @@
         <v>50</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>103</v>
@@ -8287,12 +8281,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>104</v>
@@ -8301,7 +8295,7 @@
         <v>50</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>105</v>
@@ -8310,12 +8304,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>106</v>
@@ -8324,7 +8318,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>107</v>
@@ -8333,12 +8327,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>108</v>
@@ -8347,7 +8341,7 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>109</v>
@@ -8356,12 +8350,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>110</v>
@@ -8370,7 +8364,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>111</v>
@@ -8379,12 +8373,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>112</v>
@@ -8393,7 +8387,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>113</v>
@@ -8402,12 +8396,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>114</v>
@@ -8416,7 +8410,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>115</v>
@@ -8425,12 +8419,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>116</v>
@@ -8439,7 +8433,7 @@
         <v>50</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>117</v>
@@ -8448,12 +8442,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>118</v>
@@ -8462,7 +8456,7 @@
         <v>50</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>119</v>
@@ -8471,12 +8465,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>120</v>
@@ -8485,7 +8479,7 @@
         <v>50</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>121</v>
@@ -8494,12 +8488,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>73</v>
@@ -8508,7 +8502,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>79</v>
@@ -8517,12 +8511,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>75</v>
@@ -8531,7 +8525,7 @@
         <v>50</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>81</v>
@@ -8540,12 +8534,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>82</v>
@@ -8554,7 +8548,7 @@
         <v>50</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>83</v>
@@ -8563,12 +8557,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>84</v>
@@ -8577,7 +8571,7 @@
         <v>50</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>85</v>
@@ -8586,12 +8580,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>86</v>
@@ -8600,7 +8594,7 @@
         <v>50</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>87</v>
@@ -8609,12 +8603,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>88</v>
@@ -8623,7 +8617,7 @@
         <v>50</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>89</v>
@@ -8632,12 +8626,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>90</v>
@@ -8646,7 +8640,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>91</v>
@@ -8655,12 +8649,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>92</v>
@@ -8669,7 +8663,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>93</v>
@@ -8678,12 +8672,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>94</v>
@@ -8692,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>95</v>
@@ -8701,12 +8695,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>96</v>
@@ -8715,7 +8709,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>97</v>
@@ -8724,12 +8718,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>98</v>
@@ -8738,7 +8732,7 @@
         <v>50</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>99</v>
@@ -8747,12 +8741,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>100</v>
@@ -8761,7 +8755,7 @@
         <v>50</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>101</v>
@@ -8770,12 +8764,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>102</v>
@@ -8784,7 +8778,7 @@
         <v>50</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>103</v>
@@ -8793,12 +8787,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>104</v>
@@ -8807,7 +8801,7 @@
         <v>50</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>105</v>
@@ -8816,12 +8810,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>106</v>
@@ -8830,7 +8824,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>107</v>
@@ -8839,12 +8833,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>108</v>
@@ -8853,7 +8847,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>109</v>
@@ -8862,12 +8856,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>110</v>
@@ -8876,7 +8870,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>111</v>
@@ -8885,12 +8879,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>112</v>
@@ -8899,7 +8893,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>113</v>
@@ -8908,12 +8902,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>114</v>
@@ -8922,7 +8916,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>115</v>
@@ -8931,12 +8925,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>116</v>
@@ -8945,7 +8939,7 @@
         <v>50</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>117</v>
@@ -8954,12 +8948,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>118</v>
@@ -8968,7 +8962,7 @@
         <v>50</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>119</v>
@@ -8977,12 +8971,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>120</v>
@@ -8991,7 +8985,7 @@
         <v>50</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>121</v>
@@ -9000,12 +8994,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>73</v>
@@ -9023,12 +9017,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>75</v>
@@ -9046,12 +9040,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>82</v>
@@ -9069,12 +9063,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>84</v>
@@ -9092,12 +9086,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>86</v>
@@ -9115,12 +9109,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>88</v>
@@ -9138,12 +9132,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>90</v>
@@ -9161,12 +9155,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>92</v>
@@ -9184,12 +9178,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>94</v>
@@ -9207,12 +9201,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>96</v>
@@ -9230,12 +9224,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>98</v>
@@ -9253,12 +9247,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>100</v>
@@ -9276,12 +9270,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>102</v>
@@ -9299,12 +9293,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>104</v>
@@ -9322,12 +9316,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>106</v>
@@ -9345,12 +9339,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>108</v>
@@ -9368,12 +9362,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>110</v>
@@ -9391,12 +9385,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>112</v>
@@ -9414,12 +9408,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>114</v>
@@ -9437,12 +9431,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>116</v>
@@ -9460,12 +9454,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>118</v>
@@ -9483,12 +9477,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>120</v>
@@ -9506,12 +9500,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>73</v>
@@ -9529,12 +9523,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>75</v>
@@ -9552,12 +9546,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>82</v>
@@ -9575,12 +9569,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>84</v>
@@ -9598,12 +9592,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>86</v>
@@ -9621,12 +9615,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>88</v>
@@ -9644,12 +9638,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>90</v>
@@ -9667,12 +9661,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>92</v>
@@ -9690,12 +9684,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>94</v>
@@ -9713,12 +9707,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>96</v>
@@ -9736,12 +9730,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>98</v>
@@ -9759,12 +9753,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>100</v>
@@ -9782,12 +9776,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>102</v>
@@ -9805,12 +9799,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>104</v>
@@ -9828,12 +9822,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>106</v>
@@ -9851,12 +9845,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>108</v>
@@ -9874,12 +9868,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>110</v>
@@ -9897,12 +9891,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>112</v>
@@ -9920,12 +9914,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>114</v>
@@ -9943,12 +9937,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>116</v>
@@ -9966,12 +9960,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>118</v>
@@ -9989,12 +9983,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>120</v>
@@ -10012,12 +10006,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>181</v>
@@ -10026,7 +10020,7 @@
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>183</v>
@@ -10035,12 +10029,12 @@
         <v>36</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>185</v>
@@ -10049,7 +10043,7 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>186</v>
@@ -10058,12 +10052,12 @@
         <v>36</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>187</v>
@@ -10072,7 +10066,7 @@
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>188</v>
@@ -10081,12 +10075,12 @@
         <v>36</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>189</v>
@@ -10095,7 +10089,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>190</v>
@@ -10104,12 +10098,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>191</v>
@@ -10118,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>192</v>
@@ -10127,12 +10121,12 @@
         <v>36</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>193</v>
@@ -10141,7 +10135,7 @@
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>194</v>
@@ -10150,12 +10144,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>195</v>
@@ -10164,7 +10158,7 @@
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>196</v>
@@ -10173,12 +10167,12 @@
         <v>36</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>73</v>
@@ -10187,7 +10181,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>79</v>
@@ -10196,12 +10190,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>75</v>
@@ -10210,7 +10204,7 @@
         <v>50</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>81</v>
@@ -10219,12 +10213,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>82</v>
@@ -10233,7 +10227,7 @@
         <v>50</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>83</v>
@@ -10242,12 +10236,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>84</v>
@@ -10256,7 +10250,7 @@
         <v>50</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>85</v>
@@ -10265,12 +10259,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>86</v>
@@ -10279,7 +10273,7 @@
         <v>50</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>87</v>
@@ -10288,12 +10282,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>88</v>
@@ -10302,7 +10296,7 @@
         <v>50</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>89</v>
@@ -10311,12 +10305,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>90</v>
@@ -10325,7 +10319,7 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>91</v>
@@ -10334,12 +10328,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>92</v>
@@ -10348,7 +10342,7 @@
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>93</v>
@@ -10357,12 +10351,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>94</v>
@@ -10371,7 +10365,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>95</v>
@@ -10380,12 +10374,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>96</v>
@@ -10394,7 +10388,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>97</v>
@@ -10403,12 +10397,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>98</v>
@@ -10417,7 +10411,7 @@
         <v>50</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>99</v>
@@ -10426,12 +10420,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>100</v>
@@ -10440,7 +10434,7 @@
         <v>50</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>101</v>
@@ -10449,12 +10443,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>102</v>
@@ -10463,7 +10457,7 @@
         <v>50</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>103</v>
@@ -10472,12 +10466,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>104</v>
@@ -10486,7 +10480,7 @@
         <v>50</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>105</v>
@@ -10495,12 +10489,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>106</v>
@@ -10509,7 +10503,7 @@
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>107</v>
@@ -10518,12 +10512,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>108</v>
@@ -10532,7 +10526,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>109</v>
@@ -10541,12 +10535,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>110</v>
@@ -10555,7 +10549,7 @@
         <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>111</v>
@@ -10564,12 +10558,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>112</v>
@@ -10578,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>113</v>
@@ -10587,12 +10581,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>114</v>
@@ -10601,7 +10595,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>115</v>
@@ -10610,12 +10604,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>116</v>
@@ -10624,7 +10618,7 @@
         <v>50</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>117</v>
@@ -10633,12 +10627,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>118</v>
@@ -10647,7 +10641,7 @@
         <v>50</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>119</v>
@@ -10656,12 +10650,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>120</v>
@@ -10670,7 +10664,7 @@
         <v>50</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>121</v>
@@ -10679,12 +10673,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>73</v>
@@ -10693,7 +10687,7 @@
         <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>79</v>
@@ -10702,12 +10696,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>75</v>
@@ -10716,7 +10710,7 @@
         <v>50</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>81</v>
@@ -10725,12 +10719,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>82</v>
@@ -10739,7 +10733,7 @@
         <v>50</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>83</v>
@@ -10748,12 +10742,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>84</v>
@@ -10762,7 +10756,7 @@
         <v>50</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>85</v>
@@ -10771,12 +10765,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>86</v>
@@ -10785,7 +10779,7 @@
         <v>50</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>87</v>
@@ -10794,12 +10788,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>88</v>
@@ -10808,7 +10802,7 @@
         <v>50</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>89</v>
@@ -10817,12 +10811,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>90</v>
@@ -10831,7 +10825,7 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>91</v>
@@ -10840,12 +10834,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>92</v>
@@ -10854,7 +10848,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>93</v>
@@ -10863,12 +10857,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>94</v>
@@ -10877,7 +10871,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>95</v>
@@ -10886,12 +10880,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>96</v>
@@ -10900,7 +10894,7 @@
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>97</v>
@@ -10909,12 +10903,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>98</v>
@@ -10923,7 +10917,7 @@
         <v>50</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>99</v>
@@ -10932,12 +10926,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>100</v>
@@ -10946,7 +10940,7 @@
         <v>50</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>101</v>
@@ -10955,12 +10949,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>102</v>
@@ -10969,7 +10963,7 @@
         <v>50</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>103</v>
@@ -10978,12 +10972,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>104</v>
@@ -10992,7 +10986,7 @@
         <v>50</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>105</v>
@@ -11001,12 +10995,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>106</v>
@@ -11015,7 +11009,7 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>107</v>
@@ -11024,12 +11018,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>108</v>
@@ -11038,7 +11032,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>109</v>
@@ -11047,12 +11041,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>110</v>
@@ -11061,7 +11055,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>111</v>
@@ -11070,12 +11064,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>112</v>
@@ -11084,7 +11078,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>113</v>
@@ -11093,12 +11087,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>114</v>
@@ -11107,7 +11101,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>115</v>
@@ -11116,12 +11110,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>116</v>
@@ -11130,7 +11124,7 @@
         <v>50</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>117</v>
@@ -11139,12 +11133,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>118</v>
@@ -11153,7 +11147,7 @@
         <v>50</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>119</v>
@@ -11162,12 +11156,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>120</v>
@@ -11176,7 +11170,7 @@
         <v>50</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>121</v>
@@ -11185,12 +11179,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>181</v>
@@ -11199,7 +11193,7 @@
         <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>183</v>
@@ -11208,12 +11202,12 @@
         <v>36</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>185</v>
@@ -11222,7 +11216,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>186</v>
@@ -11231,12 +11225,12 @@
         <v>36</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>187</v>
@@ -11245,7 +11239,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>188</v>
@@ -11254,12 +11248,12 @@
         <v>36</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>189</v>
@@ -11268,7 +11262,7 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>190</v>
@@ -11277,12 +11271,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>191</v>
@@ -11291,7 +11285,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>192</v>
@@ -11300,12 +11294,12 @@
         <v>36</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>193</v>
@@ -11314,7 +11308,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>194</v>
@@ -11323,12 +11317,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>195</v>
@@ -11337,7 +11331,7 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>196</v>
@@ -11346,12 +11340,12 @@
         <v>36</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>73</v>
@@ -11360,21 +11354,21 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>75</v>
@@ -11383,7 +11377,7 @@
         <v>50</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>81</v>
@@ -11392,12 +11386,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>82</v>
@@ -11406,7 +11400,7 @@
         <v>50</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>83</v>
@@ -11415,12 +11409,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>84</v>
@@ -11429,7 +11423,7 @@
         <v>50</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>85</v>
@@ -11438,12 +11432,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>86</v>
@@ -11452,7 +11446,7 @@
         <v>50</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>87</v>
@@ -11461,12 +11455,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>88</v>
@@ -11475,7 +11469,7 @@
         <v>50</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>89</v>
@@ -11484,12 +11478,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>90</v>
@@ -11498,7 +11492,7 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>91</v>
@@ -11507,12 +11501,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>92</v>
@@ -11521,7 +11515,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>93</v>
@@ -11530,12 +11524,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>94</v>
@@ -11544,7 +11538,7 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>95</v>
@@ -11553,12 +11547,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>96</v>
@@ -11567,21 +11561,21 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>98</v>
@@ -11590,7 +11584,7 @@
         <v>50</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>99</v>
@@ -11599,12 +11593,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>100</v>
@@ -11613,7 +11607,7 @@
         <v>50</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>101</v>
@@ -11622,12 +11616,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>102</v>
@@ -11636,7 +11630,7 @@
         <v>50</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>103</v>
@@ -11645,12 +11639,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>104</v>
@@ -11659,7 +11653,7 @@
         <v>50</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>105</v>
@@ -11668,12 +11662,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>106</v>
@@ -11682,7 +11676,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>107</v>
@@ -11691,12 +11685,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>108</v>
@@ -11705,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>109</v>
@@ -11714,12 +11708,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>110</v>
@@ -11728,7 +11722,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>111</v>
@@ -11737,12 +11731,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>112</v>
@@ -11751,21 +11745,21 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>114</v>
@@ -11774,7 +11768,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>115</v>
@@ -11783,12 +11777,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>116</v>
@@ -11797,7 +11791,7 @@
         <v>50</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>117</v>
@@ -11806,12 +11800,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>118</v>
@@ -11820,7 +11814,7 @@
         <v>50</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>119</v>
@@ -11829,12 +11823,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>120</v>
@@ -11843,7 +11837,7 @@
         <v>50</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>121</v>
@@ -11852,15 +11846,15 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>50</v>
@@ -11869,7 +11863,7 @@
         <v>64</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
@@ -11880,10 +11874,10 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>9</v>
@@ -11892,10 +11886,10 @@
         <v>64</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G475" s="2" t="s">
         <v>55</v>
@@ -11903,10 +11897,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>50</v>
@@ -11915,7 +11909,7 @@
         <v>64</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
@@ -11926,10 +11920,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>9</v>
@@ -11938,7 +11932,7 @@
         <v>64</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
@@ -11949,10 +11943,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>50</v>
@@ -11961,7 +11955,7 @@
         <v>53</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
@@ -11972,10 +11966,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>50</v>
@@ -11984,7 +11978,7 @@
         <v>64</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
@@ -11995,10 +11989,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>50</v>
@@ -12007,7 +12001,7 @@
         <v>64</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
@@ -12018,10 +12012,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>50</v>
@@ -12030,7 +12024,7 @@
         <v>64</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
@@ -12041,10 +12035,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>50</v>
@@ -12053,7 +12047,7 @@
         <v>64</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
@@ -12064,10 +12058,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>50</v>
@@ -12076,7 +12070,7 @@
         <v>64</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
@@ -12087,10 +12081,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>50</v>
@@ -12099,7 +12093,7 @@
         <v>64</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
@@ -12110,10 +12104,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>50</v>
@@ -12122,7 +12116,7 @@
         <v>64</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
@@ -12133,10 +12127,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>50</v>
@@ -12145,7 +12139,7 @@
         <v>64</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
@@ -12156,10 +12150,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>50</v>
@@ -12168,7 +12162,7 @@
         <v>214</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
@@ -12179,10 +12173,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>50</v>
@@ -12191,7 +12185,7 @@
         <v>214</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
@@ -12202,48 +12196,48 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="E489" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D489" s="2" t="s">
+      <c r="F489" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E489" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F489" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D490" s="2" t="s">
+      <c r="E490" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E490" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F490" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G490" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -1971,7 +1971,7 @@
         <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -2017,7 +2017,7 @@
         <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>74</v>
@@ -2040,7 +2040,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>74</v>
@@ -2063,7 +2063,7 @@
         <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>74</v>
@@ -2086,7 +2086,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>74</v>
@@ -2201,7 +2201,7 @@
         <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>74</v>
@@ -2224,7 +2224,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>74</v>
@@ -2247,7 +2247,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>74</v>
@@ -2270,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>74</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -3817,7 +3817,7 @@
         <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>126</v>
@@ -3840,7 +3840,7 @@
         <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>126</v>
@@ -4346,7 +4346,7 @@
         <v>96</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>129</v>
@@ -4369,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>129</v>
@@ -4875,7 +4875,7 @@
         <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>132</v>
@@ -4898,7 +4898,7 @@
         <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>132</v>
@@ -5404,7 +5404,7 @@
         <v>96</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>135</v>
@@ -5427,7 +5427,7 @@
         <v>98</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>135</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="307">
   <si>
     <t>Sezione</t>
   </si>
@@ -794,7 +794,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12669,7 +12672,7 @@
         <v>257</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>49</v>
@@ -12689,10 +12692,10 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>49</v>
@@ -12701,7 +12704,7 @@
         <v>64</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
@@ -12712,10 +12715,10 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -12724,10 +12727,10 @@
         <v>64</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>55</v>
@@ -12735,10 +12738,10 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>49</v>
@@ -12747,7 +12750,7 @@
         <v>64</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
@@ -12758,10 +12761,10 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -12770,7 +12773,7 @@
         <v>64</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
@@ -12781,10 +12784,10 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>49</v>
@@ -12793,7 +12796,7 @@
         <v>53</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12804,10 +12807,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>49</v>
@@ -12816,7 +12819,7 @@
         <v>64</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
@@ -12827,10 +12830,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>49</v>
@@ -12839,7 +12842,7 @@
         <v>64</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12850,10 +12853,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>49</v>
@@ -12862,7 +12865,7 @@
         <v>64</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12873,10 +12876,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>49</v>
@@ -12885,7 +12888,7 @@
         <v>64</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -12896,10 +12899,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>49</v>
@@ -12908,7 +12911,7 @@
         <v>64</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -12919,10 +12922,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>49</v>
@@ -12931,7 +12934,7 @@
         <v>64</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -12942,10 +12945,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>49</v>
@@ -12954,7 +12957,7 @@
         <v>64</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -12965,10 +12968,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>49</v>
@@ -12977,7 +12980,7 @@
         <v>64</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -12988,10 +12991,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>49</v>
@@ -13000,7 +13003,7 @@
         <v>216</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13011,10 +13014,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>49</v>
@@ -13023,7 +13026,7 @@
         <v>216</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13034,10 +13037,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
@@ -13046,7 +13049,7 @@
         <v>64</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13057,10 +13060,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
@@ -13069,7 +13072,7 @@
         <v>64</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13080,71 +13083,71 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E527" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F527" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G527" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="306">
   <si>
     <t>Sezione</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12672,7 +12669,7 @@
         <v>257</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>49</v>
@@ -12692,10 +12689,10 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B509" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>49</v>
@@ -12704,7 +12701,7 @@
         <v>64</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
@@ -12715,10 +12712,10 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -12727,10 +12724,10 @@
         <v>64</v>
       </c>
       <c r="E510" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F510" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F510" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>55</v>
@@ -12738,10 +12735,10 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>49</v>
@@ -12750,7 +12747,7 @@
         <v>64</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
@@ -12761,10 +12758,10 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -12773,7 +12770,7 @@
         <v>64</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
@@ -12784,10 +12781,10 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>49</v>
@@ -12796,7 +12793,7 @@
         <v>53</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12807,10 +12804,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>49</v>
@@ -12819,7 +12816,7 @@
         <v>64</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
@@ -12830,10 +12827,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>49</v>
@@ -12842,7 +12839,7 @@
         <v>64</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12853,10 +12850,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>49</v>
@@ -12865,7 +12862,7 @@
         <v>64</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12876,10 +12873,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>49</v>
@@ -12888,7 +12885,7 @@
         <v>64</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -12899,10 +12896,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>49</v>
@@ -12911,7 +12908,7 @@
         <v>64</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -12922,10 +12919,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>49</v>
@@ -12934,7 +12931,7 @@
         <v>64</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -12945,10 +12942,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>49</v>
@@ -12957,7 +12954,7 @@
         <v>64</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -12968,10 +12965,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>49</v>
@@ -12980,7 +12977,7 @@
         <v>64</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -12991,10 +12988,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>49</v>
@@ -13003,7 +13000,7 @@
         <v>216</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13014,10 +13011,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>49</v>
@@ -13026,7 +13023,7 @@
         <v>216</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13037,10 +13034,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
@@ -13049,7 +13046,7 @@
         <v>64</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13060,10 +13057,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
@@ -13072,7 +13069,7 @@
         <v>64</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13083,71 +13080,71 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B526" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="C526" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C526" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D526" s="2" t="s">
+      <c r="E526" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E526" s="2" t="s">
+      <c r="F526" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F526" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E527" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C527" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E527" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E528" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C528" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E528" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="307">
   <si>
     <t>Sezione</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12669,7 +12672,7 @@
         <v>257</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>49</v>
@@ -12689,10 +12692,10 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>49</v>
@@ -12701,7 +12704,7 @@
         <v>64</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
@@ -12712,10 +12715,10 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -12724,10 +12727,10 @@
         <v>64</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>55</v>
@@ -12735,10 +12738,10 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>49</v>
@@ -12747,7 +12750,7 @@
         <v>64</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
@@ -12758,10 +12761,10 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -12770,7 +12773,7 @@
         <v>64</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
@@ -12781,10 +12784,10 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>49</v>
@@ -12793,7 +12796,7 @@
         <v>53</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12804,10 +12807,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>49</v>
@@ -12816,7 +12819,7 @@
         <v>64</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
@@ -12827,10 +12830,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>49</v>
@@ -12839,7 +12842,7 @@
         <v>64</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12850,10 +12853,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>49</v>
@@ -12862,7 +12865,7 @@
         <v>64</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12873,10 +12876,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>49</v>
@@ -12885,7 +12888,7 @@
         <v>64</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -12896,10 +12899,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>49</v>
@@ -12908,7 +12911,7 @@
         <v>64</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -12919,10 +12922,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>49</v>
@@ -12931,7 +12934,7 @@
         <v>64</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -12942,10 +12945,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>49</v>
@@ -12954,7 +12957,7 @@
         <v>64</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -12965,10 +12968,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>49</v>
@@ -12977,7 +12980,7 @@
         <v>64</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -12988,10 +12991,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>49</v>
@@ -13000,7 +13003,7 @@
         <v>216</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13011,10 +13014,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>49</v>
@@ -13023,7 +13026,7 @@
         <v>216</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13034,10 +13037,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
@@ -13046,7 +13049,7 @@
         <v>64</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13057,10 +13060,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
@@ -13069,7 +13072,7 @@
         <v>64</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13080,71 +13083,71 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E527" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F527" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G527" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="323">
   <si>
     <t>Sezione</t>
   </si>
@@ -455,12 +455,30 @@
     <t>Pubblicazioni</t>
   </si>
   <si>
+    <t>Riduzione dei termini</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione1</t>
+  </si>
+  <si>
+    <t>idNazione</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazione</t>
+  </si>
+  <si>
     <t>Provincia</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione1</t>
-  </si>
-  <si>
     <t>idProvincia</t>
   </si>
   <si>
@@ -482,6 +500,18 @@
     <t>comune</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Data Inizio</t>
   </si>
   <si>
@@ -494,13 +524,10 @@
     <t>dataFine</t>
   </si>
   <si>
-    <t>Pubblicazioni altro comune</t>
-  </si>
-  <si>
-    <t>Riduzione dei termini</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
+    <t>Pubblicazioni altro comune o consolato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
@@ -509,9 +536,6 @@
     <t>Provincia Comune</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
-  </si>
-  <si>
     <t>Atto di Nascita dello sposo</t>
   </si>
   <si>
@@ -866,7 +890,7 @@
     <t>numeroTestimoni</t>
   </si>
   <si>
-    <t>Pubblicazioni avvenute su più comuni</t>
+    <t>Pubblicazioni avvenute su più comuni o consolati</t>
   </si>
   <si>
     <t>pubblicazioneInPiuComuni</t>
@@ -1015,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4350,7 +4374,7 @@
         <v>78</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>138</v>
@@ -4879,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>141</v>
@@ -5408,7 +5432,7 @@
         <v>78</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>144</v>
@@ -5894,10 +5918,10 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5911,13 +5935,13 @@
         <v>146</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>151</v>
@@ -5937,10 +5961,10 @@
         <v>152</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>153</v>
@@ -5963,13 +5987,13 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>11</v>
@@ -5986,13 +6010,13 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>11</v>
@@ -6009,13 +6033,13 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>11</v>
@@ -6023,364 +6047,364 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
@@ -6391,19 +6415,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6414,19 +6438,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
@@ -6437,19 +6461,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6460,180 +6484,180 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6644,180 +6668,180 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
@@ -6828,19 +6852,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
@@ -6851,19 +6875,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6874,19 +6898,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -6897,847 +6921,847 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7748,19 +7772,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7771,19 +7795,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7794,19 +7818,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7817,5277 +7841,5277 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D300" s="2" t="s">
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E519" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="F519" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>278</v>
+        <v>110</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>49</v>
@@ -13096,7 +13120,7 @@
         <v>64</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13107,22 +13131,22 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="G526" s="2" t="s">
         <v>55</v>
@@ -13130,10 +13154,10 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>49</v>
@@ -13142,7 +13166,7 @@
         <v>64</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
@@ -13153,19 +13177,19 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
@@ -13176,19 +13200,19 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
@@ -13199,19 +13223,19 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
@@ -13222,19 +13246,19 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
@@ -13245,19 +13269,19 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
@@ -13268,19 +13292,19 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
@@ -13291,71 +13315,255 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>310</v>
+        <v>55</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>310</v>
+        <v>55</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B538" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="C538" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E541" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C536" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E536" s="2" t="s">
+      <c r="F541" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F536" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>310</v>
+      <c r="B542" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -167,16 +167,16 @@
     <t>197</t>
   </si>
   <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
   </si>
   <si>
     <t>evento</t>
@@ -1856,7 +1856,7 @@
         <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1891,18 +1891,18 @@
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>55</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>55</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>55</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>55</v>
@@ -1994,7 +1994,7 @@
         <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>66</v>
@@ -2017,7 +2017,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>66</v>
@@ -2040,7 +2040,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>66</v>
@@ -2063,7 +2063,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -2086,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>76</v>
@@ -2109,7 +2109,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>76</v>
@@ -2569,7 +2569,7 @@
         <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>76</v>
@@ -2592,7 +2592,7 @@
         <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>76</v>
@@ -2615,7 +2615,7 @@
         <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>76</v>
@@ -2661,7 +2661,7 @@
         <v>78</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>125</v>
@@ -2707,7 +2707,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>125</v>
@@ -2730,7 +2730,7 @@
         <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>125</v>
@@ -2753,7 +2753,7 @@
         <v>86</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>125</v>
@@ -2776,7 +2776,7 @@
         <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>125</v>
@@ -2914,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>125</v>
@@ -2937,7 +2937,7 @@
         <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>125</v>
@@ -2960,7 +2960,7 @@
         <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>125</v>
@@ -2983,7 +2983,7 @@
         <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>125</v>
@@ -3121,7 +3121,7 @@
         <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>125</v>
@@ -3144,7 +3144,7 @@
         <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>125</v>
@@ -3167,7 +3167,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>125</v>
@@ -3305,7 +3305,7 @@
         <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>137</v>
@@ -3351,7 +3351,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>137</v>
@@ -3374,7 +3374,7 @@
         <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
@@ -3397,7 +3397,7 @@
         <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>137</v>
@@ -3420,7 +3420,7 @@
         <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>137</v>
@@ -3558,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>137</v>
@@ -3581,7 +3581,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>137</v>
@@ -3604,7 +3604,7 @@
         <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>137</v>
@@ -3627,7 +3627,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>137</v>
@@ -3765,7 +3765,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>137</v>
@@ -3788,7 +3788,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>137</v>
@@ -3811,7 +3811,7 @@
         <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>137</v>
@@ -3949,7 +3949,7 @@
         <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>139</v>
@@ -3995,7 +3995,7 @@
         <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>139</v>
@@ -4018,7 +4018,7 @@
         <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>139</v>
@@ -4041,7 +4041,7 @@
         <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>139</v>
@@ -4064,7 +4064,7 @@
         <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>139</v>
@@ -4248,7 +4248,7 @@
         <v>104</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>139</v>
@@ -4271,7 +4271,7 @@
         <v>106</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>139</v>
@@ -4409,7 +4409,7 @@
         <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>139</v>
@@ -4432,7 +4432,7 @@
         <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>139</v>
@@ -4455,7 +4455,7 @@
         <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>139</v>
@@ -4501,7 +4501,7 @@
         <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>142</v>
@@ -4547,7 +4547,7 @@
         <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>142</v>
@@ -4570,7 +4570,7 @@
         <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>142</v>
@@ -4593,7 +4593,7 @@
         <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>142</v>
@@ -4616,7 +4616,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>142</v>
@@ -4800,7 +4800,7 @@
         <v>104</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>142</v>
@@ -4823,7 +4823,7 @@
         <v>106</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>142</v>
@@ -4961,7 +4961,7 @@
         <v>118</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>142</v>
@@ -4984,7 +4984,7 @@
         <v>120</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>142</v>
@@ -5007,7 +5007,7 @@
         <v>127</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>142</v>
@@ -5053,7 +5053,7 @@
         <v>78</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>145</v>
@@ -5099,7 +5099,7 @@
         <v>82</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>145</v>
@@ -5122,7 +5122,7 @@
         <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>145</v>
@@ -5145,7 +5145,7 @@
         <v>86</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>145</v>
@@ -5168,7 +5168,7 @@
         <v>88</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>145</v>
@@ -5352,7 +5352,7 @@
         <v>104</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>145</v>
@@ -5375,7 +5375,7 @@
         <v>106</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>145</v>
@@ -5513,7 +5513,7 @@
         <v>118</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>145</v>
@@ -5536,7 +5536,7 @@
         <v>120</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>145</v>
@@ -5559,7 +5559,7 @@
         <v>127</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>145</v>
@@ -5605,7 +5605,7 @@
         <v>78</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>148</v>
@@ -5651,7 +5651,7 @@
         <v>82</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>148</v>
@@ -5674,7 +5674,7 @@
         <v>84</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>148</v>
@@ -5697,7 +5697,7 @@
         <v>86</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>148</v>
@@ -5720,7 +5720,7 @@
         <v>88</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>148</v>
@@ -5904,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>148</v>
@@ -5927,7 +5927,7 @@
         <v>106</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>148</v>
@@ -6065,7 +6065,7 @@
         <v>118</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>148</v>
@@ -6088,7 +6088,7 @@
         <v>120</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>148</v>
@@ -6111,7 +6111,7 @@
         <v>127</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>148</v>
@@ -6157,7 +6157,7 @@
         <v>153</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>154</v>
@@ -6180,7 +6180,7 @@
         <v>156</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>154</v>
@@ -6387,7 +6387,7 @@
         <v>153</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>175</v>
@@ -6410,7 +6410,7 @@
         <v>156</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>175</v>
@@ -6893,7 +6893,7 @@
         <v>203</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>204</v>
@@ -6916,7 +6916,7 @@
         <v>207</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>204</v>
@@ -6939,7 +6939,7 @@
         <v>209</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>204</v>
@@ -6962,7 +6962,7 @@
         <v>211</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>204</v>
@@ -6985,7 +6985,7 @@
         <v>213</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>204</v>
@@ -7008,7 +7008,7 @@
         <v>215</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>204</v>
@@ -7031,7 +7031,7 @@
         <v>217</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>204</v>
@@ -7330,7 +7330,7 @@
         <v>203</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>222</v>
@@ -7353,7 +7353,7 @@
         <v>207</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>222</v>
@@ -7376,7 +7376,7 @@
         <v>209</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>222</v>
@@ -7399,7 +7399,7 @@
         <v>211</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>222</v>
@@ -7422,7 +7422,7 @@
         <v>213</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>222</v>
@@ -7445,7 +7445,7 @@
         <v>215</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>222</v>
@@ -7468,7 +7468,7 @@
         <v>217</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>222</v>
@@ -7491,7 +7491,7 @@
         <v>203</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>225</v>
@@ -7514,7 +7514,7 @@
         <v>207</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>225</v>
@@ -7537,7 +7537,7 @@
         <v>209</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>225</v>
@@ -7560,7 +7560,7 @@
         <v>211</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>225</v>
@@ -7583,7 +7583,7 @@
         <v>213</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>225</v>
@@ -7606,7 +7606,7 @@
         <v>215</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>225</v>
@@ -7629,7 +7629,7 @@
         <v>217</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>225</v>
@@ -7813,7 +7813,7 @@
         <v>203</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>231</v>
@@ -7836,7 +7836,7 @@
         <v>207</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>231</v>
@@ -7859,7 +7859,7 @@
         <v>209</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>231</v>
@@ -7882,7 +7882,7 @@
         <v>211</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>231</v>
@@ -7905,7 +7905,7 @@
         <v>213</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>231</v>
@@ -7928,7 +7928,7 @@
         <v>215</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>231</v>
@@ -7951,7 +7951,7 @@
         <v>217</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>231</v>
@@ -7974,7 +7974,7 @@
         <v>203</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>234</v>
@@ -7997,7 +7997,7 @@
         <v>207</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>234</v>
@@ -8020,7 +8020,7 @@
         <v>209</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>234</v>
@@ -8043,7 +8043,7 @@
         <v>211</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>234</v>
@@ -8066,7 +8066,7 @@
         <v>213</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>234</v>
@@ -8089,7 +8089,7 @@
         <v>215</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>234</v>
@@ -8112,7 +8112,7 @@
         <v>217</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>234</v>
@@ -8273,7 +8273,7 @@
         <v>78</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>251</v>
@@ -8319,7 +8319,7 @@
         <v>82</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>251</v>
@@ -8342,7 +8342,7 @@
         <v>84</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>251</v>
@@ -8365,7 +8365,7 @@
         <v>86</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>251</v>
@@ -8388,7 +8388,7 @@
         <v>88</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>251</v>
@@ -8526,7 +8526,7 @@
         <v>100</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>251</v>
@@ -8549,7 +8549,7 @@
         <v>102</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>251</v>
@@ -8572,7 +8572,7 @@
         <v>104</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>251</v>
@@ -8595,7 +8595,7 @@
         <v>106</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>251</v>
@@ -8733,7 +8733,7 @@
         <v>118</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>251</v>
@@ -8756,7 +8756,7 @@
         <v>120</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>251</v>
@@ -8779,7 +8779,7 @@
         <v>127</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>251</v>
@@ -8825,7 +8825,7 @@
         <v>78</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>254</v>
@@ -8871,7 +8871,7 @@
         <v>82</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>254</v>
@@ -8894,7 +8894,7 @@
         <v>84</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>254</v>
@@ -8917,7 +8917,7 @@
         <v>86</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>254</v>
@@ -8940,7 +8940,7 @@
         <v>88</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>254</v>
@@ -9078,7 +9078,7 @@
         <v>100</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>254</v>
@@ -9101,7 +9101,7 @@
         <v>102</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>254</v>
@@ -9124,7 +9124,7 @@
         <v>104</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>254</v>
@@ -9147,7 +9147,7 @@
         <v>106</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>254</v>
@@ -9285,7 +9285,7 @@
         <v>118</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>254</v>
@@ -9308,7 +9308,7 @@
         <v>120</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>254</v>
@@ -9331,7 +9331,7 @@
         <v>127</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>254</v>
@@ -9377,7 +9377,7 @@
         <v>78</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>257</v>
@@ -9423,7 +9423,7 @@
         <v>82</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>257</v>
@@ -9446,7 +9446,7 @@
         <v>84</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>257</v>
@@ -9469,7 +9469,7 @@
         <v>86</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>257</v>
@@ -9492,7 +9492,7 @@
         <v>88</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>257</v>
@@ -9630,7 +9630,7 @@
         <v>100</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>257</v>
@@ -9653,7 +9653,7 @@
         <v>102</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>257</v>
@@ -9676,7 +9676,7 @@
         <v>104</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>257</v>
@@ -9699,7 +9699,7 @@
         <v>106</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>257</v>
@@ -9837,7 +9837,7 @@
         <v>118</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>257</v>
@@ -9860,7 +9860,7 @@
         <v>120</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>257</v>
@@ -9883,7 +9883,7 @@
         <v>127</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>257</v>
@@ -9929,7 +9929,7 @@
         <v>78</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>260</v>
@@ -9975,7 +9975,7 @@
         <v>82</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>260</v>
@@ -9998,7 +9998,7 @@
         <v>84</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>260</v>
@@ -10021,7 +10021,7 @@
         <v>86</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>260</v>
@@ -10044,7 +10044,7 @@
         <v>88</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>260</v>
@@ -10182,7 +10182,7 @@
         <v>100</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>260</v>
@@ -10205,7 +10205,7 @@
         <v>102</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>260</v>
@@ -10228,7 +10228,7 @@
         <v>104</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>260</v>
@@ -10251,7 +10251,7 @@
         <v>106</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>260</v>
@@ -10389,7 +10389,7 @@
         <v>118</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>260</v>
@@ -10412,7 +10412,7 @@
         <v>120</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>260</v>
@@ -10435,7 +10435,7 @@
         <v>127</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>260</v>
@@ -10481,7 +10481,7 @@
         <v>78</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>263</v>
@@ -10527,7 +10527,7 @@
         <v>82</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>263</v>
@@ -10550,7 +10550,7 @@
         <v>84</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>263</v>
@@ -10573,7 +10573,7 @@
         <v>86</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>263</v>
@@ -10596,7 +10596,7 @@
         <v>88</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>263</v>
@@ -10734,7 +10734,7 @@
         <v>100</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>263</v>
@@ -10757,7 +10757,7 @@
         <v>102</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>263</v>
@@ -10780,7 +10780,7 @@
         <v>104</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>263</v>
@@ -10803,7 +10803,7 @@
         <v>106</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>263</v>
@@ -10941,7 +10941,7 @@
         <v>118</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>263</v>
@@ -10964,7 +10964,7 @@
         <v>120</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>263</v>
@@ -10987,7 +10987,7 @@
         <v>127</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>263</v>
@@ -11033,7 +11033,7 @@
         <v>78</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>263</v>
@@ -11079,7 +11079,7 @@
         <v>82</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>263</v>
@@ -11102,7 +11102,7 @@
         <v>84</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>263</v>
@@ -11125,7 +11125,7 @@
         <v>86</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>263</v>
@@ -11148,7 +11148,7 @@
         <v>88</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>263</v>
@@ -11286,7 +11286,7 @@
         <v>100</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>263</v>
@@ -11309,7 +11309,7 @@
         <v>102</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>263</v>
@@ -11332,7 +11332,7 @@
         <v>104</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>263</v>
@@ -11355,7 +11355,7 @@
         <v>106</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>263</v>
@@ -11493,7 +11493,7 @@
         <v>118</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>263</v>
@@ -11516,7 +11516,7 @@
         <v>120</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>263</v>
@@ -11539,7 +11539,7 @@
         <v>127</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>263</v>
@@ -11562,7 +11562,7 @@
         <v>203</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>268</v>
@@ -11585,7 +11585,7 @@
         <v>207</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>268</v>
@@ -11608,7 +11608,7 @@
         <v>209</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>268</v>
@@ -11631,7 +11631,7 @@
         <v>211</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>268</v>
@@ -11654,7 +11654,7 @@
         <v>213</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>268</v>
@@ -11677,7 +11677,7 @@
         <v>215</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>268</v>
@@ -11700,7 +11700,7 @@
         <v>217</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>268</v>
@@ -11746,7 +11746,7 @@
         <v>78</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>271</v>
@@ -11792,7 +11792,7 @@
         <v>82</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>271</v>
@@ -11815,7 +11815,7 @@
         <v>84</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>271</v>
@@ -11838,7 +11838,7 @@
         <v>86</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>271</v>
@@ -11861,7 +11861,7 @@
         <v>88</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>271</v>
@@ -11999,7 +11999,7 @@
         <v>100</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>271</v>
@@ -12022,7 +12022,7 @@
         <v>102</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>271</v>
@@ -12045,7 +12045,7 @@
         <v>104</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>271</v>
@@ -12068,7 +12068,7 @@
         <v>106</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>271</v>
@@ -12206,7 +12206,7 @@
         <v>118</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>271</v>
@@ -12229,7 +12229,7 @@
         <v>120</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>271</v>
@@ -12252,7 +12252,7 @@
         <v>127</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>271</v>
@@ -12298,7 +12298,7 @@
         <v>78</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>271</v>
@@ -12344,7 +12344,7 @@
         <v>82</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>271</v>
@@ -12367,7 +12367,7 @@
         <v>84</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>271</v>
@@ -12390,7 +12390,7 @@
         <v>86</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>271</v>
@@ -12413,7 +12413,7 @@
         <v>88</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>271</v>
@@ -12551,7 +12551,7 @@
         <v>100</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>271</v>
@@ -12574,7 +12574,7 @@
         <v>102</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>271</v>
@@ -12597,7 +12597,7 @@
         <v>104</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>271</v>
@@ -12620,7 +12620,7 @@
         <v>106</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>271</v>
@@ -12758,7 +12758,7 @@
         <v>118</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>271</v>
@@ -12781,7 +12781,7 @@
         <v>120</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>271</v>
@@ -12804,7 +12804,7 @@
         <v>127</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>271</v>
@@ -12827,7 +12827,7 @@
         <v>203</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>276</v>
@@ -12850,7 +12850,7 @@
         <v>207</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>276</v>
@@ -12873,7 +12873,7 @@
         <v>209</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>276</v>
@@ -12896,7 +12896,7 @@
         <v>211</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>276</v>
@@ -12919,7 +12919,7 @@
         <v>213</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>276</v>
@@ -12942,7 +12942,7 @@
         <v>215</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>276</v>
@@ -12965,7 +12965,7 @@
         <v>217</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>276</v>
@@ -13011,7 +13011,7 @@
         <v>78</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>279</v>
@@ -13057,7 +13057,7 @@
         <v>82</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>279</v>
@@ -13080,7 +13080,7 @@
         <v>84</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>279</v>
@@ -13103,7 +13103,7 @@
         <v>86</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>279</v>
@@ -13126,7 +13126,7 @@
         <v>88</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>279</v>
@@ -13181,7 +13181,7 @@
         <v>93</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G527" s="2" t="s">
         <v>281</v>
@@ -13250,7 +13250,7 @@
         <v>99</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G530" s="2" t="s">
         <v>281</v>
@@ -13264,7 +13264,7 @@
         <v>100</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>279</v>
@@ -13287,7 +13287,7 @@
         <v>102</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>279</v>
@@ -13310,7 +13310,7 @@
         <v>104</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>279</v>
@@ -13333,7 +13333,7 @@
         <v>106</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>279</v>
@@ -13388,7 +13388,7 @@
         <v>111</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G536" s="2" t="s">
         <v>281</v>
@@ -13457,7 +13457,7 @@
         <v>117</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G539" s="2" t="s">
         <v>281</v>
@@ -13471,7 +13471,7 @@
         <v>118</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>279</v>
@@ -13494,7 +13494,7 @@
         <v>120</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>279</v>
@@ -13517,7 +13517,7 @@
         <v>122</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>279</v>
@@ -13540,7 +13540,7 @@
         <v>283</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>66</v>
@@ -13586,7 +13586,7 @@
         <v>288</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>66</v>
@@ -13632,7 +13632,7 @@
         <v>292</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D547" s="2" t="s">
         <v>55</v>
@@ -13655,7 +13655,7 @@
         <v>294</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>66</v>
@@ -13678,7 +13678,7 @@
         <v>296</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>66</v>
@@ -13701,7 +13701,7 @@
         <v>298</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>66</v>
@@ -13724,7 +13724,7 @@
         <v>300</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>66</v>
@@ -13747,7 +13747,7 @@
         <v>302</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>66</v>
@@ -13770,7 +13770,7 @@
         <v>304</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>66</v>
@@ -13793,7 +13793,7 @@
         <v>306</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>66</v>
@@ -13816,7 +13816,7 @@
         <v>308</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>66</v>
@@ -13839,7 +13839,7 @@
         <v>310</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>237</v>
@@ -13862,7 +13862,7 @@
         <v>312</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>237</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="334">
   <si>
     <t>Sezione</t>
   </si>
@@ -627,6 +627,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -1066,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H595"/>
+  <dimension ref="A1:H597"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7247,53 +7253,53 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E270" s="2" t="s">
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>214</v>
@@ -7302,7 +7308,7 @@
         <v>55</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>215</v>
@@ -7311,12 +7317,12 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>216</v>
@@ -7325,7 +7331,7 @@
         <v>55</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>217</v>
@@ -7334,12 +7340,12 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>218</v>
@@ -7348,7 +7354,7 @@
         <v>55</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>219</v>
@@ -7357,12 +7363,12 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>220</v>
@@ -7371,7 +7377,7 @@
         <v>55</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>221</v>
@@ -7380,12 +7386,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>222</v>
@@ -7394,7 +7400,7 @@
         <v>55</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>223</v>
@@ -7403,47 +7409,47 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D276" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -7454,19 +7460,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7477,19 +7483,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
@@ -7500,19 +7506,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
@@ -7523,19 +7529,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
@@ -7546,19 +7552,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7569,19 +7575,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
@@ -7592,19 +7598,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7615,19 +7621,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
@@ -7638,19 +7644,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7661,19 +7667,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7687,22 +7693,22 @@
         <v>226</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
     </row>
     <row r="289">
@@ -7710,3903 +7716,3903 @@
         <v>226</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D295" s="2" t="s">
+      <c r="E295" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D296" s="2" t="s">
+      <c r="E296" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="2" t="s">
+      <c r="E302" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D303" s="2" t="s">
+      <c r="E303" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D309" s="2" t="s">
+      <c r="E309" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D316" s="2" t="s">
+      <c r="E316" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D317" s="2" t="s">
+      <c r="E317" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D323" s="2" t="s">
+      <c r="E323" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D324" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="F325" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C329" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E329" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D354" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D354" s="2" t="s">
+      <c r="E354" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D355" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D355" s="2" t="s">
+      <c r="E355" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D380" s="2" t="s">
+      <c r="E380" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F380" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G380" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B381" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D381" s="2" t="s">
+      <c r="E381" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E381" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G381" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D406" s="2" t="s">
+      <c r="E406" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G406" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D407" s="2" t="s">
+      <c r="E407" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F407" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D432" s="2" t="s">
+      <c r="E432" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E432" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F432" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D433" s="2" t="s">
+      <c r="E433" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G433" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D458" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E458" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
@@ -11617,19 +11623,19 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D459" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E459" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
@@ -11640,554 +11646,554 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D460" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E460" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E461" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D462" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E462" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D463" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E463" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D464" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E464" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E465" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D466" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E466" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E467" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E468" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E469" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E470" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E471" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E472" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E473" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E474" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E475" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E477" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E478" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E479" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D480" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E480" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E481" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E482" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D483" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D483" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E483" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="484">
@@ -12195,22 +12201,22 @@
         <v>272</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D484" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G484" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F484" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G484" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="485">
@@ -12218,752 +12224,752 @@
         <v>272</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D485" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F485" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G485" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D491" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D491" s="2" t="s">
+      <c r="E491" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E491" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F491" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G491" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D492" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D492" s="2" t="s">
+      <c r="E492" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E492" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F492" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E517" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -12974,19 +12980,19 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E518" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -12997,554 +13003,554 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E519" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E520" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E521" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E522" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E523" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E524" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E525" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E526" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E527" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E528" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E529" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E530" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D531" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E531" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D532" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E532" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E533" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E534" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E535" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E536" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E537" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E538" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E539" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E540" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E541" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D542" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E542" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="543">
@@ -13552,22 +13558,22 @@
         <v>280</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D543" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E543" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F543" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G543" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="544">
@@ -13575,789 +13581,789 @@
         <v>280</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D544" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F544" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D550" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B550" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D550" s="2" t="s">
+      <c r="E550" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E550" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F550" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G550" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D551" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B551" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D551" s="2" t="s">
+      <c r="E551" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E551" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F551" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F568" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E576" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F576" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G576" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>291</v>
+        <v>128</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>55</v>
@@ -14366,7 +14372,7 @@
         <v>67</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>10</v>
@@ -14377,10 +14383,10 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>9</v>
@@ -14389,10 +14395,10 @@
         <v>67</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="G579" s="2" t="s">
         <v>58</v>
@@ -14400,19 +14406,19 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>10</v>
@@ -14423,22 +14429,22 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D581" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G581" s="2" t="s">
         <v>58</v>
@@ -14446,19 +14452,19 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>10</v>
@@ -14469,10 +14475,10 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>55</v>
@@ -14481,7 +14487,7 @@
         <v>67</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>10</v>
@@ -14492,10 +14498,10 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>55</v>
@@ -14504,7 +14510,7 @@
         <v>67</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F584" s="2" t="s">
         <v>10</v>
@@ -14515,10 +14521,10 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>55</v>
@@ -14527,7 +14533,7 @@
         <v>67</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>10</v>
@@ -14538,10 +14544,10 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>55</v>
@@ -14550,7 +14556,7 @@
         <v>67</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>10</v>
@@ -14561,10 +14567,10 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>55</v>
@@ -14573,7 +14579,7 @@
         <v>67</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F587" s="2" t="s">
         <v>10</v>
@@ -14584,10 +14590,10 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>55</v>
@@ -14596,7 +14602,7 @@
         <v>67</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F588" s="2" t="s">
         <v>10</v>
@@ -14607,19 +14613,19 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F589" s="2" t="s">
         <v>10</v>
@@ -14630,19 +14636,19 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F590" s="2" t="s">
         <v>10</v>
@@ -14653,19 +14659,19 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>10</v>
@@ -14676,19 +14682,19 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>10</v>
@@ -14699,71 +14705,117 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B594" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C594" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B595" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B596" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C595" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D595" s="2" t="s">
+      <c r="C596" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E595" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F595" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G595" s="2" t="s">
+      <c r="B597" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597" s="2" t="s">
         <v>327</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -14073,7 +14073,7 @@
         <v>103</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>288</v>
@@ -14096,7 +14096,7 @@
         <v>105</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>288</v>
@@ -14105,7 +14105,7 @@
         <v>106</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="G566" s="2" t="s">
         <v>290</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="336">
   <si>
     <t>Sezione</t>
   </si>
@@ -1014,6 +1014,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H597"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -14818,6 +14824,29 @@
         <v>329</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
